--- a/AnalyzingData.xlsx
+++ b/AnalyzingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjj\Work\EcEnResearchAssistant\HarrisonRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF5AE4F-C3F0-4DE9-AC04-E6161A1E5BC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B29734-BFED-431D-92F6-0DAAC4F0E38F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" xr2:uid="{F5ED2DB1-F7E9-5240-9F7C-06700BE2AE66}"/>
   </bookViews>
@@ -21,12 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Tx2 dB level</t>
   </si>
@@ -1437,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C316A8D-EB99-6943-B4DB-4EBAD917AA2B}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="83" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1769,7 +1774,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="N7" s="30"/>
-      <c r="O7" s="23"/>
+      <c r="O7" s="23">
+        <f>Q9</f>
+        <v>0</v>
+      </c>
       <c r="P7" s="30"/>
       <c r="S7" s="6"/>
     </row>
@@ -7658,383 +7666,5696 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC63EA4-4BCD-4A26-B725-5D5A00CF28DD}">
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:AG315"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection sqref="A1:B315"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11">
-        <v>-0.25906735751295334</v>
-      </c>
-      <c r="B1" s="11">
-        <v>5.654296875</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="11">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <f>2^A2</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/C2</f>
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="22">
+        <f>CEILING(C2*$M$3,1)</f>
+        <v>200</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <f>100*(D2-G2)/D2</f>
+        <v>100</v>
+      </c>
+      <c r="I2" s="24">
+        <f>SUM(E2*$B$3)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="10">
+        <f>CEILING(C2*$M$4,1)</f>
+        <v>350</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="24">
+        <f t="shared" ref="L2:L46" si="0">100*(D2-K2)/D2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M2" s="24">
+        <f>E2*$H$4</f>
+        <v>75</v>
+      </c>
+      <c r="N2" s="22">
+        <f>CEILING(C2*$M$5,1)</f>
+        <v>125</v>
+      </c>
+      <c r="O2" s="22">
+        <v>3</v>
+      </c>
+      <c r="P2" s="24">
+        <f t="shared" ref="P2:P46" si="1">100*(D2-O2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="24">
+        <f>E2*$H$5</f>
+        <v>60</v>
+      </c>
+      <c r="R2" s="22">
+        <f>CEILING(C2*$M$6,1)</f>
+        <v>275</v>
+      </c>
+      <c r="S2" s="22">
+        <v>3</v>
+      </c>
+      <c r="T2" s="24">
+        <f t="shared" ref="T2:T46" si="2">100*(D2-S2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="24">
+        <f>E2*$H$6</f>
+        <v>68.181818181818187</v>
+      </c>
+      <c r="V2" s="22">
+        <f>CEILING(C2*$M$7,1)</f>
+        <v>375</v>
+      </c>
+      <c r="W2" s="22">
+        <v>3</v>
+      </c>
+      <c r="X2" s="24">
+        <f>100*(D2-W2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24">
+        <f>SUM(E2*$H$7)</f>
+        <v>70</v>
+      </c>
+      <c r="Z2" s="22">
+        <f>CEILING(C2*$M$8,1)</f>
+        <v>75</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="24">
+        <f t="shared" ref="AB2:AB46" si="3">100*(D2-AA2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="24">
+        <f>E2*$H$8</f>
+        <v>37.5</v>
+      </c>
+      <c r="AD2" s="22">
+        <f>CEILING(C2*$M$9,1)</f>
+        <v>200</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="24">
+        <f t="shared" ref="AF2:AF46" si="4">100*(D2-AE2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="24">
+        <f>(E2*$H$9)</f>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:C46" si="5">2^A3</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E46" si="6">D3/C3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F46" si="7">CEILING(C3*$M$3,1)</f>
+        <v>400</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" ref="H3:H46" si="8">100*(D3-G3)/D3</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="24">
+        <f t="shared" ref="I3:I46" si="9">SUM(E3*$B$3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J46" si="10">CEILING(C3*$M$4,1)</f>
+        <v>700</v>
+      </c>
+      <c r="K3" s="22">
+        <v>2</v>
+      </c>
+      <c r="L3" s="24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M3" s="24">
+        <f t="shared" ref="M3:M46" si="11">E3*$H$4</f>
+        <v>50</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" ref="N3:N46" si="12">CEILING(C3*$M$5,1)</f>
+        <v>250</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4</v>
+      </c>
+      <c r="P3" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <f t="shared" ref="Q3:Q46" si="13">E3*$H$5</f>
+        <v>40</v>
+      </c>
+      <c r="R3" s="22">
+        <f t="shared" ref="R3:R46" si="14">CEILING(C3*$M$6,1)</f>
+        <v>550</v>
+      </c>
+      <c r="S3" s="22">
+        <v>4</v>
+      </c>
+      <c r="T3" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="24">
+        <f t="shared" ref="U3:U46" si="15">E3*$H$6</f>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="V3" s="22">
+        <f t="shared" ref="V3:V46" si="16">CEILING(C3*$M$7,1)</f>
+        <v>750</v>
+      </c>
+      <c r="W3" s="22">
+        <v>4</v>
+      </c>
+      <c r="X3" s="24">
+        <f t="shared" ref="X3:X46" si="17">100*(D3-W3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
+        <f t="shared" ref="Y3:Y46" si="18">SUM(E3*$H$7)</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="Z3" s="22">
+        <f t="shared" ref="Z3:Z46" si="19">CEILING(C3*$M$8,1)</f>
+        <v>150</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="24">
+        <f t="shared" ref="AC3:AC46" si="20">E3*$H$8</f>
+        <v>25</v>
+      </c>
+      <c r="AD3" s="22">
+        <f t="shared" ref="AD3:AD46" si="21">CEILING(C3*$M$9,1)</f>
+        <v>400</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="24">
+        <f t="shared" ref="AG3:AG46" si="22">(E3*$H$9)</f>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>9.0625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="M4" s="24">
+        <f t="shared" si="11"/>
+        <v>87.5</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="24">
+        <f t="shared" si="1"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="Q4" s="24">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="R4" s="22">
+        <f t="shared" si="14"/>
+        <v>550</v>
+      </c>
+      <c r="S4" s="22">
+        <v>6</v>
+      </c>
+      <c r="T4" s="24">
+        <f t="shared" si="2"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="U4" s="24">
+        <f t="shared" si="15"/>
+        <v>79.545454545454547</v>
+      </c>
+      <c r="V4" s="22">
+        <f t="shared" si="16"/>
+        <v>750</v>
+      </c>
+      <c r="W4" s="22">
+        <v>6</v>
+      </c>
+      <c r="X4" s="24">
+        <f t="shared" si="17"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="Y4" s="24">
+        <f t="shared" si="18"/>
+        <v>81.666666666666657</v>
+      </c>
+      <c r="Z4" s="22">
+        <f t="shared" si="19"/>
+        <v>150</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="24">
+        <f t="shared" si="20"/>
+        <v>43.75</v>
+      </c>
+      <c r="AD4" s="22">
+        <f t="shared" si="21"/>
+        <v>400</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="24">
+        <f t="shared" si="22"/>
+        <v>71.09375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>5.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="6"/>
+        <v>0.3125</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="9"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="10"/>
+        <v>1400</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" si="11"/>
+        <v>31.25</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="O5" s="4">
+        <v>5</v>
+      </c>
+      <c r="P5" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="R5" s="22">
+        <f t="shared" si="14"/>
+        <v>1100</v>
+      </c>
+      <c r="S5" s="22">
+        <v>5</v>
+      </c>
+      <c r="T5" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="24">
+        <f t="shared" si="15"/>
+        <v>28.409090909090907</v>
+      </c>
+      <c r="V5" s="22">
+        <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="W5" s="22">
+        <v>5</v>
+      </c>
+      <c r="X5" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="18"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="24">
+        <f t="shared" si="20"/>
+        <v>15.625</v>
+      </c>
+      <c r="AD5" s="22">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
+      <c r="AE5" s="22">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="24">
+        <f t="shared" si="22"/>
+        <v>25.390625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>3.171875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="11">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="8"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="9"/>
+        <v>0.6875</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="10"/>
+        <v>1400</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="0"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="11"/>
+        <v>68.75</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10</v>
+      </c>
+      <c r="P6" s="24">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="Q6" s="24">
+        <f t="shared" si="13"/>
+        <v>55</v>
+      </c>
+      <c r="R6" s="22">
+        <f t="shared" si="14"/>
+        <v>1100</v>
+      </c>
+      <c r="S6" s="22">
+        <v>11</v>
+      </c>
+      <c r="T6" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24">
+        <f t="shared" si="15"/>
+        <v>62.5</v>
+      </c>
+      <c r="V6" s="22">
+        <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="W6" s="22">
+        <v>11</v>
+      </c>
+      <c r="X6" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <f t="shared" si="18"/>
+        <v>64.166666666666657</v>
+      </c>
+      <c r="Z6" s="22">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24">
+        <f t="shared" si="20"/>
+        <v>34.375</v>
+      </c>
+      <c r="AD6" s="22">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24">
+        <f t="shared" si="22"/>
+        <v>55.859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11">
-        <v>1.8125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="8"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="10"/>
+        <v>1400</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="11"/>
+        <v>93.75</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="O7" s="4">
+        <v>12</v>
+      </c>
+      <c r="P7" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="24">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="R7" s="22">
+        <f t="shared" si="14"/>
+        <v>1100</v>
+      </c>
+      <c r="S7" s="22">
+        <v>13</v>
+      </c>
+      <c r="T7" s="24">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="U7" s="24">
+        <f t="shared" si="15"/>
+        <v>85.22727272727272</v>
+      </c>
+      <c r="V7" s="22">
+        <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="W7" s="22">
+        <v>13</v>
+      </c>
+      <c r="X7" s="24">
+        <f t="shared" si="17"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Y7" s="24">
+        <f t="shared" si="18"/>
+        <v>87.5</v>
+      </c>
+      <c r="Z7" s="22">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="24">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" si="20"/>
+        <v>46.875</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="24">
+        <f t="shared" si="22"/>
+        <v>76.171875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11">
-        <v>6.5703125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="10"/>
+        <v>2800</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="11"/>
+        <v>18.75</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="O8" s="4">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="14"/>
+        <v>2200</v>
+      </c>
+      <c r="S8" s="22">
+        <v>6</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <f t="shared" si="15"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="W8" s="22">
+        <v>6</v>
+      </c>
+      <c r="X8" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <f t="shared" si="18"/>
+        <v>17.5</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" si="19"/>
+        <v>600</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="24">
+        <f t="shared" si="20"/>
+        <v>9.375</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="21"/>
+        <v>1600</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="24">
+        <f t="shared" si="22"/>
+        <v>15.234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="11">
-        <v>1.01953125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="11">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="8"/>
+        <v>81.25</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="10"/>
+        <v>2800</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="O9" s="4">
+        <v>15</v>
+      </c>
+      <c r="P9" s="24">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="14"/>
+        <v>2200</v>
+      </c>
+      <c r="S9" s="22">
+        <v>16</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <f t="shared" si="15"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="W9" s="22">
+        <v>16</v>
+      </c>
+      <c r="X9" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <f t="shared" si="18"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="19"/>
+        <v>600</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="24">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="AD9" s="22">
+        <f t="shared" si="21"/>
+        <v>1600</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>16</v>
+      </c>
+      <c r="AF9" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="24">
+        <f t="shared" si="22"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10" s="11">
-        <v>4.19140625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="11">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="6"/>
+        <v>0.8125</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="8"/>
+        <v>88.461538461538467</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="9"/>
+        <v>0.8125</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="10"/>
+        <v>2800</v>
+      </c>
+      <c r="K10" s="4">
+        <v>11</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>57.692307692307693</v>
+      </c>
+      <c r="M10" s="24">
+        <f t="shared" si="11"/>
+        <v>81.25</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="O10" s="4">
+        <v>22</v>
+      </c>
+      <c r="P10" s="24">
+        <f t="shared" si="1"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="Q10" s="24">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="R10" s="22">
+        <f t="shared" si="14"/>
+        <v>2200</v>
+      </c>
+      <c r="S10" s="22">
+        <v>24</v>
+      </c>
+      <c r="T10" s="24">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="U10" s="24">
+        <f t="shared" si="15"/>
+        <v>73.86363636363636</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="W10" s="22">
+        <v>25</v>
+      </c>
+      <c r="X10" s="24">
+        <f t="shared" si="17"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="Y10" s="24">
+        <f t="shared" si="18"/>
+        <v>75.833333333333329</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="19"/>
+        <v>600</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="24">
+        <f t="shared" si="3"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="AC10" s="24">
+        <f t="shared" si="20"/>
+        <v>40.625</v>
+      </c>
+      <c r="AD10" s="22">
+        <f t="shared" si="21"/>
+        <v>1600</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>26</v>
+      </c>
+      <c r="AF10" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="24">
+        <f t="shared" si="22"/>
+        <v>66.015625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="11">
-        <v>0.56640625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="11">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="6"/>
+        <v>0.96875</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="8"/>
+        <v>90.322580645161295</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="9"/>
+        <v>0.96875</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="10"/>
+        <v>2800</v>
+      </c>
+      <c r="K11" s="4">
+        <v>11</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="0"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="11"/>
+        <v>96.875</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="O11" s="4">
+        <v>24</v>
+      </c>
+      <c r="P11" s="24">
+        <f t="shared" si="1"/>
+        <v>22.580645161290324</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="13"/>
+        <v>77.5</v>
+      </c>
+      <c r="R11" s="22">
+        <f t="shared" si="14"/>
+        <v>2200</v>
+      </c>
+      <c r="S11" s="22">
+        <v>26</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="2"/>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="15"/>
+        <v>88.068181818181813</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="W11" s="22">
+        <v>27</v>
+      </c>
+      <c r="X11" s="24">
+        <f t="shared" si="17"/>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="Y11" s="24">
+        <f t="shared" si="18"/>
+        <v>90.416666666666657</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="19"/>
+        <v>600</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="24">
+        <f t="shared" si="3"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="AC11" s="24">
+        <f t="shared" si="20"/>
+        <v>48.4375</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="21"/>
+        <v>1600</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>31</v>
+      </c>
+      <c r="AF11" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="24">
+        <f t="shared" si="22"/>
+        <v>78.7109375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="11">
-        <v>2.60546875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="6"/>
+        <v>0.109375</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+      <c r="G12" s="22">
+        <v>4</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="8"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="9"/>
+        <v>0.109375</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" si="11"/>
+        <v>10.9375</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O12" s="4">
+        <v>7</v>
+      </c>
+      <c r="P12" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <f t="shared" si="13"/>
+        <v>8.75</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="14"/>
+        <v>4400</v>
+      </c>
+      <c r="S12" s="22">
+        <v>7</v>
+      </c>
+      <c r="T12" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <f t="shared" si="15"/>
+        <v>9.9431818181818183</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="W12" s="22">
+        <v>7</v>
+      </c>
+      <c r="X12" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <f t="shared" si="18"/>
+        <v>10.208333333333332</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="20"/>
+        <v>5.46875</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="24">
+        <f t="shared" si="22"/>
+        <v>8.88671875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11">
-        <v>0.3115234375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D13" s="11">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34375</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+      <c r="G13" s="22">
+        <v>6</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="8"/>
+        <v>72.727272727272734</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="9"/>
+        <v>0.34375</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="K13" s="4">
+        <v>15</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="0"/>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="11"/>
+        <v>34.375</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O13" s="4">
+        <v>21</v>
+      </c>
+      <c r="P13" s="24">
+        <f t="shared" si="1"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="13"/>
+        <v>27.5</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="14"/>
+        <v>4400</v>
+      </c>
+      <c r="S13" s="22">
+        <v>22</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="15"/>
+        <v>31.25</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="W13" s="22">
+        <v>22</v>
+      </c>
+      <c r="X13" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <f t="shared" si="18"/>
+        <v>32.083333333333329</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24">
+        <f t="shared" si="20"/>
+        <v>17.1875</v>
+      </c>
+      <c r="AD13" s="22">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="24">
+        <f t="shared" si="22"/>
+        <v>27.9296875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="11">
-        <v>1.5859375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D14" s="11">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="6"/>
+        <v>0.65625</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+      <c r="G14" s="22">
+        <v>6</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="8"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="9"/>
+        <v>0.65625</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="K14" s="4">
+        <v>22</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="0"/>
+        <v>47.61904761904762</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="11"/>
+        <v>65.625</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O14" s="4">
+        <v>37</v>
+      </c>
+      <c r="P14" s="24">
+        <f t="shared" si="1"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="13"/>
+        <v>52.5</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="14"/>
+        <v>4400</v>
+      </c>
+      <c r="S14" s="22">
+        <v>40</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="U14" s="24">
+        <f t="shared" si="15"/>
+        <v>59.659090909090907</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="W14" s="22">
+        <v>41</v>
+      </c>
+      <c r="X14" s="24">
+        <f t="shared" si="17"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="Y14" s="24">
+        <f t="shared" si="18"/>
+        <v>61.25</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="24">
+        <f t="shared" si="3"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="AC14" s="24">
+        <f t="shared" si="20"/>
+        <v>32.8125</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="24">
+        <f t="shared" si="22"/>
+        <v>53.3203125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="11">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.890625</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+      <c r="G15" s="22">
+        <v>6</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="8"/>
+        <v>89.473684210526315</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="9"/>
+        <v>0.890625</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="K15" s="4">
+        <v>23</v>
+      </c>
+      <c r="L15" s="24">
+        <f t="shared" si="0"/>
+        <v>59.649122807017541</v>
+      </c>
+      <c r="M15" s="24">
+        <f t="shared" si="11"/>
+        <v>89.0625</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O15" s="4">
+        <v>46</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="1"/>
+        <v>19.298245614035089</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" si="13"/>
+        <v>71.25</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="14"/>
+        <v>4400</v>
+      </c>
+      <c r="S15" s="22">
+        <v>50</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="2"/>
+        <v>12.280701754385966</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="15"/>
+        <v>80.965909090909093</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="W15" s="22">
+        <v>53</v>
+      </c>
+      <c r="X15" s="24">
+        <f t="shared" si="17"/>
+        <v>7.0175438596491224</v>
+      </c>
+      <c r="Y15" s="24">
+        <f t="shared" si="18"/>
+        <v>83.125</v>
+      </c>
+      <c r="Z15" s="22">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>53</v>
+      </c>
+      <c r="AB15" s="24">
+        <f t="shared" si="3"/>
+        <v>7.0175438596491224</v>
+      </c>
+      <c r="AC15" s="24">
+        <f t="shared" si="20"/>
+        <v>44.53125</v>
+      </c>
+      <c r="AD15" s="22">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+      <c r="AE15" s="22">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="24">
+        <f t="shared" si="22"/>
+        <v>72.36328125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="11">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D16" s="11">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="6"/>
+        <v>0.984375</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+      <c r="G16" s="22">
+        <v>6</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="8"/>
+        <v>90.476190476190482</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="9"/>
+        <v>0.984375</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="10"/>
+        <v>5600</v>
+      </c>
+      <c r="K16" s="4">
+        <v>23</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="0"/>
+        <v>63.492063492063494</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="11"/>
+        <v>98.4375</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="12"/>
+        <v>2000</v>
+      </c>
+      <c r="O16" s="4">
+        <v>48</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="1"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="13"/>
+        <v>78.75</v>
+      </c>
+      <c r="R16" s="22">
+        <f t="shared" si="14"/>
+        <v>4400</v>
+      </c>
+      <c r="S16" s="22">
+        <v>52</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="2"/>
+        <v>17.460317460317459</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="15"/>
+        <v>89.48863636363636</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="W16" s="22">
+        <v>55</v>
+      </c>
+      <c r="X16" s="24">
+        <f t="shared" si="17"/>
+        <v>12.698412698412698</v>
+      </c>
+      <c r="Y16" s="24">
+        <f t="shared" si="18"/>
+        <v>91.875</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>56</v>
+      </c>
+      <c r="AB16" s="24">
+        <f t="shared" si="3"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="AC16" s="24">
+        <f t="shared" si="20"/>
+        <v>49.21875</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="21"/>
+        <v>3200</v>
+      </c>
+      <c r="AE16" s="22">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="24">
+        <f t="shared" si="22"/>
+        <v>79.98046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="11">
-        <v>5.3125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G17" s="22">
+        <v>5</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="8"/>
+        <v>37.5</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="11"/>
+        <v>6.25</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O17" s="4">
+        <v>8</v>
+      </c>
+      <c r="P17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="R17" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S17" s="22">
+        <v>8</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="15"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W17" s="22">
+        <v>8</v>
+      </c>
+      <c r="X17" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <f t="shared" si="18"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
+        <f t="shared" si="20"/>
+        <v>3.125</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE17" s="22">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="24">
+        <f t="shared" si="22"/>
+        <v>5.078125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18" s="11">
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D18" s="11">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.2265625</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G18" s="22">
+        <v>11</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="8"/>
+        <v>62.068965517241381</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="9"/>
+        <v>0.2265625</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K18" s="4">
+        <v>21</v>
+      </c>
+      <c r="L18" s="24">
+        <f t="shared" si="0"/>
+        <v>27.586206896551722</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="11"/>
+        <v>22.65625</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O18" s="4">
+        <v>29</v>
+      </c>
+      <c r="P18" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" si="13"/>
+        <v>18.125</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S18" s="22">
+        <v>29</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="15"/>
+        <v>20.59659090909091</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W18" s="22">
+        <v>29</v>
+      </c>
+      <c r="X18" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="24">
+        <f t="shared" si="18"/>
+        <v>21.145833333333332</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="24">
+        <f t="shared" si="20"/>
+        <v>11.328125</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE18" s="22">
+        <v>29</v>
+      </c>
+      <c r="AF18" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="24">
+        <f t="shared" si="22"/>
+        <v>18.408203125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B19" s="11">
-        <v>3.1875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D19" s="11">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G19" s="22">
+        <v>13</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="8"/>
+        <v>79.6875</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K19" s="4">
+        <v>37</v>
+      </c>
+      <c r="L19" s="24">
+        <f t="shared" si="0"/>
+        <v>42.1875</v>
+      </c>
+      <c r="M19" s="24">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O19" s="4">
+        <v>59</v>
+      </c>
+      <c r="P19" s="24">
+        <f t="shared" si="1"/>
+        <v>7.8125</v>
+      </c>
+      <c r="Q19" s="24">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S19" s="22">
+        <v>63</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="2"/>
+        <v>1.5625</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="15"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W19" s="22">
+        <v>63</v>
+      </c>
+      <c r="X19" s="24">
+        <f t="shared" si="17"/>
+        <v>1.5625</v>
+      </c>
+      <c r="Y19" s="24">
+        <f t="shared" si="18"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="24">
+        <f t="shared" si="3"/>
+        <v>1.5625</v>
+      </c>
+      <c r="AC19" s="24">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE19" s="22">
+        <v>64</v>
+      </c>
+      <c r="AF19" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="24">
+        <f t="shared" si="22"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B20" s="11">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D20" s="11">
+        <v>99</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="6"/>
+        <v>0.7734375</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G20" s="22">
+        <v>13</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="8"/>
+        <v>86.868686868686865</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="9"/>
+        <v>0.7734375</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45</v>
+      </c>
+      <c r="L20" s="24">
+        <f t="shared" si="0"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="M20" s="24">
+        <f t="shared" si="11"/>
+        <v>77.34375</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O20" s="4">
+        <v>84</v>
+      </c>
+      <c r="P20" s="24">
+        <f t="shared" si="1"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="Q20" s="24">
+        <f t="shared" si="13"/>
+        <v>61.875</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S20" s="22">
+        <v>91</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="2"/>
+        <v>8.0808080808080813</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="15"/>
+        <v>70.3125</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W20" s="22">
+        <v>94</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" si="17"/>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="Y20" s="24">
+        <f t="shared" si="18"/>
+        <v>72.1875</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>94</v>
+      </c>
+      <c r="AB20" s="24">
+        <f t="shared" si="3"/>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="AC20" s="24">
+        <f t="shared" si="20"/>
+        <v>38.671875</v>
+      </c>
+      <c r="AD20" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE20" s="22">
+        <v>99</v>
+      </c>
+      <c r="AF20" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="24">
+        <f t="shared" si="22"/>
+        <v>62.841796875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B21" s="11">
-        <v>1.859375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D21" s="11">
+        <v>120</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9375</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G21" s="22">
+        <v>13</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="8"/>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" si="0"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" si="11"/>
+        <v>93.75</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O21" s="4">
+        <v>95</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S21" s="22">
+        <v>103</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="2"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="U21" s="24">
+        <f t="shared" si="15"/>
+        <v>85.22727272727272</v>
+      </c>
+      <c r="V21" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W21" s="22">
+        <v>108</v>
+      </c>
+      <c r="X21" s="24">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="Y21" s="24">
+        <f t="shared" si="18"/>
+        <v>87.5</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>109</v>
+      </c>
+      <c r="AB21" s="24">
+        <f t="shared" si="3"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="AC21" s="24">
+        <f t="shared" si="20"/>
+        <v>46.875</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE21" s="22">
+        <v>120</v>
+      </c>
+      <c r="AF21" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="24">
+        <f t="shared" si="22"/>
+        <v>76.171875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B22" s="11">
-        <v>5.84375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="D22" s="11">
+        <v>127</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="7"/>
+        <v>6400</v>
+      </c>
+      <c r="G22" s="22">
+        <v>13</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="8"/>
+        <v>89.763779527559052</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="10"/>
+        <v>11200</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46</v>
+      </c>
+      <c r="L22" s="24">
+        <f t="shared" si="0"/>
+        <v>63.779527559055119</v>
+      </c>
+      <c r="M22" s="24">
+        <f t="shared" si="11"/>
+        <v>99.21875</v>
+      </c>
+      <c r="N22" s="22">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
+      <c r="O22" s="4">
+        <v>97</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" si="1"/>
+        <v>23.622047244094489</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="13"/>
+        <v>79.375</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="14"/>
+        <v>8800</v>
+      </c>
+      <c r="S22" s="22">
+        <v>105</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="2"/>
+        <v>17.322834645669293</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" si="15"/>
+        <v>90.19886363636364</v>
+      </c>
+      <c r="V22" s="22">
+        <f t="shared" si="16"/>
+        <v>12000</v>
+      </c>
+      <c r="W22" s="22">
+        <v>110</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" si="17"/>
+        <v>13.385826771653543</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="18"/>
+        <v>92.604166666666657</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="AA22" s="22">
+        <v>112</v>
+      </c>
+      <c r="AB22" s="24">
+        <f t="shared" si="3"/>
+        <v>11.811023622047244</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" si="20"/>
+        <v>49.609375</v>
+      </c>
+      <c r="AD22" s="22">
+        <f t="shared" si="21"/>
+        <v>6400</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>127</v>
+      </c>
+      <c r="AF22" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="24">
+        <f t="shared" si="22"/>
+        <v>80.615234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B23" s="11">
-        <v>1.0625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D23" s="11">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="6"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G23" s="22">
+        <v>6</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" si="9"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K23" s="4">
+        <v>8</v>
+      </c>
+      <c r="L23" s="24">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="M23" s="24">
+        <f t="shared" si="11"/>
+        <v>3.515625</v>
+      </c>
+      <c r="N23" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O23" s="4">
+        <v>9</v>
+      </c>
+      <c r="P23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="24">
+        <f t="shared" si="13"/>
+        <v>2.8125</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S23" s="22">
+        <v>9</v>
+      </c>
+      <c r="T23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="24">
+        <f t="shared" si="15"/>
+        <v>3.1960227272727271</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W23" s="22">
+        <v>9</v>
+      </c>
+      <c r="X23" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
+        <f t="shared" si="18"/>
+        <v>3.28125</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="24">
+        <f t="shared" si="20"/>
+        <v>1.7578125</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>9</v>
+      </c>
+      <c r="AF23" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="24">
+        <f t="shared" si="22"/>
+        <v>2.8564453125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B24" s="11">
-        <v>3.8515625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D24" s="11">
+        <v>37</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14453125</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G24" s="22">
+        <v>16</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="8"/>
+        <v>56.756756756756758</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="9"/>
+        <v>0.14453125</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K24" s="4">
+        <v>28</v>
+      </c>
+      <c r="L24" s="24">
+        <f t="shared" si="0"/>
+        <v>24.324324324324323</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" si="11"/>
+        <v>14.453125</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O24" s="4">
+        <v>37</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" si="13"/>
+        <v>11.5625</v>
+      </c>
+      <c r="R24" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S24" s="22">
+        <v>37</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="24">
+        <f t="shared" si="15"/>
+        <v>13.139204545454545</v>
+      </c>
+      <c r="V24" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W24" s="22">
+        <v>37</v>
+      </c>
+      <c r="X24" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
+        <f t="shared" si="18"/>
+        <v>13.489583333333332</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>37</v>
+      </c>
+      <c r="AB24" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="24">
+        <f t="shared" si="20"/>
+        <v>7.2265625</v>
+      </c>
+      <c r="AD24" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>37</v>
+      </c>
+      <c r="AF24" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="24">
+        <f t="shared" si="22"/>
+        <v>11.7431640625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B25" s="11">
-        <v>0.59765625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D25" s="11">
+        <v>93</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="6"/>
+        <v>0.36328125</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G25" s="22">
+        <v>25</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="8"/>
+        <v>73.118279569892479</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="9"/>
+        <v>0.36328125</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K25" s="4">
+        <v>58</v>
+      </c>
+      <c r="L25" s="24">
+        <f t="shared" si="0"/>
+        <v>37.634408602150536</v>
+      </c>
+      <c r="M25" s="24">
+        <f t="shared" si="11"/>
+        <v>36.328125</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O25" s="4">
+        <v>88</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="1"/>
+        <v>5.376344086021505</v>
+      </c>
+      <c r="Q25" s="24">
+        <f t="shared" si="13"/>
+        <v>29.0625</v>
+      </c>
+      <c r="R25" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S25" s="22">
+        <v>92</v>
+      </c>
+      <c r="T25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.075268817204301</v>
+      </c>
+      <c r="U25" s="24">
+        <f t="shared" si="15"/>
+        <v>33.02556818181818</v>
+      </c>
+      <c r="V25" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W25" s="22">
+        <v>92</v>
+      </c>
+      <c r="X25" s="24">
+        <f t="shared" si="17"/>
+        <v>1.075268817204301</v>
+      </c>
+      <c r="Y25" s="24">
+        <f t="shared" si="18"/>
+        <v>33.90625</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>92</v>
+      </c>
+      <c r="AB25" s="24">
+        <f t="shared" si="3"/>
+        <v>1.075268817204301</v>
+      </c>
+      <c r="AC25" s="24">
+        <f t="shared" si="20"/>
+        <v>18.1640625</v>
+      </c>
+      <c r="AD25" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE25" s="22">
+        <v>93</v>
+      </c>
+      <c r="AF25" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="24">
+        <f t="shared" si="22"/>
+        <v>29.5166015625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B26" s="11">
-        <v>2.45703125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D26" s="11">
+        <v>163</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.63671875</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G26" s="22">
+        <v>27</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="8"/>
+        <v>83.435582822085891</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="9"/>
+        <v>0.63671875</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K26" s="4">
+        <v>83</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" si="0"/>
+        <v>49.079754601226995</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="11"/>
+        <v>63.671875</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O26" s="4">
+        <v>143</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="1"/>
+        <v>12.269938650306749</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="13"/>
+        <v>50.9375</v>
+      </c>
+      <c r="R26" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S26" s="22">
+        <v>154</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="2"/>
+        <v>5.5214723926380369</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="15"/>
+        <v>57.883522727272727</v>
+      </c>
+      <c r="V26" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W26" s="22">
+        <v>157</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" si="17"/>
+        <v>3.6809815950920246</v>
+      </c>
+      <c r="Y26" s="24">
+        <f t="shared" si="18"/>
+        <v>59.427083333333329</v>
+      </c>
+      <c r="Z26" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA26" s="22">
+        <v>157</v>
+      </c>
+      <c r="AB26" s="24">
+        <f t="shared" si="3"/>
+        <v>3.6809815950920246</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="20"/>
+        <v>31.8359375</v>
+      </c>
+      <c r="AD26" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE26" s="22">
+        <v>163</v>
+      </c>
+      <c r="AF26" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="24">
+        <f t="shared" si="22"/>
+        <v>51.7333984375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B27" s="11">
-        <v>0.33203125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D27" s="11">
+        <v>219</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="6"/>
+        <v>0.85546875</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G27" s="22">
+        <v>27</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="8"/>
+        <v>87.671232876712324</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="9"/>
+        <v>0.85546875</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K27" s="4">
+        <v>92</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" si="0"/>
+        <v>57.990867579908674</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" si="11"/>
+        <v>85.546875</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O27" s="4">
+        <v>179</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="1"/>
+        <v>18.264840182648403</v>
+      </c>
+      <c r="Q27" s="24">
+        <f t="shared" si="13"/>
+        <v>68.4375</v>
+      </c>
+      <c r="R27" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S27" s="22">
+        <v>194</v>
+      </c>
+      <c r="T27" s="24">
+        <f t="shared" si="2"/>
+        <v>11.415525114155251</v>
+      </c>
+      <c r="U27" s="24">
+        <f t="shared" si="15"/>
+        <v>77.76988636363636</v>
+      </c>
+      <c r="V27" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W27" s="22">
+        <v>203</v>
+      </c>
+      <c r="X27" s="24">
+        <f t="shared" si="17"/>
+        <v>7.3059360730593603</v>
+      </c>
+      <c r="Y27" s="24">
+        <f t="shared" si="18"/>
+        <v>79.84375</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA27" s="22">
+        <v>203</v>
+      </c>
+      <c r="AB27" s="24">
+        <f t="shared" si="3"/>
+        <v>7.3059360730593603</v>
+      </c>
+      <c r="AC27" s="24">
+        <f t="shared" si="20"/>
+        <v>42.7734375</v>
+      </c>
+      <c r="AD27" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE27" s="22">
+        <v>219</v>
+      </c>
+      <c r="AF27" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="24">
+        <f t="shared" si="22"/>
+        <v>69.5068359375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B28" s="11">
-        <v>1.52734375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D28" s="11">
+        <v>247</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.96484375</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G28" s="22">
+        <v>27</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="8"/>
+        <v>89.068825910931167</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="9"/>
+        <v>0.96484375</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K28" s="4">
+        <v>93</v>
+      </c>
+      <c r="L28" s="24">
+        <f t="shared" si="0"/>
+        <v>62.348178137651821</v>
+      </c>
+      <c r="M28" s="24">
+        <f t="shared" si="11"/>
+        <v>96.484375</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O28" s="4">
+        <v>192</v>
+      </c>
+      <c r="P28" s="24">
+        <f t="shared" si="1"/>
+        <v>22.267206477732792</v>
+      </c>
+      <c r="Q28" s="24">
+        <f t="shared" si="13"/>
+        <v>77.1875</v>
+      </c>
+      <c r="R28" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S28" s="22">
+        <v>208</v>
+      </c>
+      <c r="T28" s="24">
+        <f t="shared" si="2"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="U28" s="24">
+        <f t="shared" si="15"/>
+        <v>87.713068181818173</v>
+      </c>
+      <c r="V28" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W28" s="22">
+        <v>219</v>
+      </c>
+      <c r="X28" s="24">
+        <f t="shared" si="17"/>
+        <v>11.336032388663968</v>
+      </c>
+      <c r="Y28" s="24">
+        <f t="shared" si="18"/>
+        <v>90.052083333333329</v>
+      </c>
+      <c r="Z28" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA28" s="22">
+        <v>221</v>
+      </c>
+      <c r="AB28" s="24">
+        <f t="shared" si="3"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="AC28" s="24">
+        <f t="shared" si="20"/>
+        <v>48.2421875</v>
+      </c>
+      <c r="AD28" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE28" s="22">
+        <v>247</v>
+      </c>
+      <c r="AF28" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="24">
+        <f t="shared" si="22"/>
+        <v>78.3935546875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B29" s="11">
-        <v>0.1826171875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="D29" s="11">
+        <v>255</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="7"/>
+        <v>12800</v>
+      </c>
+      <c r="G29" s="22">
+        <v>27</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="8"/>
+        <v>89.411764705882348</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="9"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="10"/>
+        <v>22400</v>
+      </c>
+      <c r="K29" s="4">
+        <v>93</v>
+      </c>
+      <c r="L29" s="24">
+        <f t="shared" si="0"/>
+        <v>63.529411764705884</v>
+      </c>
+      <c r="M29" s="24">
+        <f t="shared" si="11"/>
+        <v>99.609375</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="12"/>
+        <v>8000</v>
+      </c>
+      <c r="O29" s="4">
+        <v>194</v>
+      </c>
+      <c r="P29" s="24">
+        <f t="shared" si="1"/>
+        <v>23.921568627450981</v>
+      </c>
+      <c r="Q29" s="24">
+        <f t="shared" si="13"/>
+        <v>79.6875</v>
+      </c>
+      <c r="R29" s="22">
+        <f t="shared" si="14"/>
+        <v>17600</v>
+      </c>
+      <c r="S29" s="22">
+        <v>210</v>
+      </c>
+      <c r="T29" s="24">
+        <f t="shared" si="2"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="U29" s="24">
+        <f t="shared" si="15"/>
+        <v>90.553977272727266</v>
+      </c>
+      <c r="V29" s="22">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="W29" s="22">
+        <v>221</v>
+      </c>
+      <c r="X29" s="24">
+        <f t="shared" si="17"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Y29" s="24">
+        <f t="shared" si="18"/>
+        <v>92.96875</v>
+      </c>
+      <c r="Z29" s="22">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="AA29" s="22">
+        <v>224</v>
+      </c>
+      <c r="AB29" s="24">
+        <f t="shared" si="3"/>
+        <v>12.156862745098039</v>
+      </c>
+      <c r="AC29" s="24">
+        <f t="shared" si="20"/>
+        <v>49.8046875</v>
+      </c>
+      <c r="AD29" s="22">
+        <f t="shared" si="21"/>
+        <v>12800</v>
+      </c>
+      <c r="AE29" s="22">
+        <v>255</v>
+      </c>
+      <c r="AF29" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="24">
+        <f t="shared" si="22"/>
+        <v>80.9326171875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B30" s="11">
-        <v>0.9296875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="6"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G30" s="22">
+        <v>7</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="9"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K30" s="4">
+        <v>9</v>
+      </c>
+      <c r="L30" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M30" s="24">
+        <f t="shared" si="11"/>
+        <v>1.953125</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O30" s="4">
+        <v>10</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="24">
+        <f t="shared" si="13"/>
+        <v>1.5625</v>
+      </c>
+      <c r="R30" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S30" s="22">
+        <v>10</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="24">
+        <f t="shared" si="15"/>
+        <v>1.7755681818181817</v>
+      </c>
+      <c r="V30" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W30" s="22">
+        <v>10</v>
+      </c>
+      <c r="X30" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24">
+        <f t="shared" si="18"/>
+        <v>1.8229166666666665</v>
+      </c>
+      <c r="Z30" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA30" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="24">
+        <f t="shared" si="20"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="AD30" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE30" s="22">
+        <v>10</v>
+      </c>
+      <c r="AF30" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="24">
+        <f t="shared" si="22"/>
+        <v>1.5869140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B31" s="11">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D31" s="11">
+        <v>46</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="6"/>
+        <v>8.984375E-2</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G31" s="22">
+        <v>22</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="8"/>
+        <v>52.173913043478258</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="9"/>
+        <v>8.984375E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K31" s="4">
+        <v>36</v>
+      </c>
+      <c r="L31" s="24">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="M31" s="24">
+        <f t="shared" si="11"/>
+        <v>8.984375</v>
+      </c>
+      <c r="N31" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O31" s="4">
+        <v>46</v>
+      </c>
+      <c r="P31" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24">
+        <f t="shared" si="13"/>
+        <v>7.1875</v>
+      </c>
+      <c r="R31" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S31" s="22">
+        <v>46</v>
+      </c>
+      <c r="T31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="24">
+        <f t="shared" si="15"/>
+        <v>8.1676136363636367</v>
+      </c>
+      <c r="V31" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W31" s="22">
+        <v>46</v>
+      </c>
+      <c r="X31" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24">
+        <f t="shared" si="18"/>
+        <v>8.3854166666666661</v>
+      </c>
+      <c r="Z31" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA31" s="22">
+        <v>46</v>
+      </c>
+      <c r="AB31" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="24">
+        <f t="shared" si="20"/>
+        <v>4.4921875</v>
+      </c>
+      <c r="AD31" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE31" s="22">
+        <v>46</v>
+      </c>
+      <c r="AF31" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="24">
+        <f t="shared" si="22"/>
+        <v>7.2998046875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B32" s="11">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D32" s="11">
+        <v>130</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="6"/>
+        <v>0.25390625</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G32" s="22">
+        <v>41</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="8"/>
+        <v>68.461538461538467</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="9"/>
+        <v>0.25390625</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K32" s="4">
+        <v>86</v>
+      </c>
+      <c r="L32" s="24">
+        <f t="shared" si="0"/>
+        <v>33.846153846153847</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="11"/>
+        <v>25.390625</v>
+      </c>
+      <c r="N32" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O32" s="4">
+        <v>125</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="Q32" s="24">
+        <f t="shared" si="13"/>
+        <v>20.3125</v>
+      </c>
+      <c r="R32" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S32" s="22">
+        <v>129</v>
+      </c>
+      <c r="T32" s="24">
+        <f t="shared" si="2"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="U32" s="24">
+        <f t="shared" si="15"/>
+        <v>23.082386363636363</v>
+      </c>
+      <c r="V32" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W32" s="22">
+        <v>129</v>
+      </c>
+      <c r="X32" s="24">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="Y32" s="24">
+        <f t="shared" si="18"/>
+        <v>23.697916666666664</v>
+      </c>
+      <c r="Z32" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA32" s="22">
+        <v>129</v>
+      </c>
+      <c r="AB32" s="24">
+        <f t="shared" si="3"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AC32" s="24">
+        <f t="shared" si="20"/>
+        <v>12.6953125</v>
+      </c>
+      <c r="AD32" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE32" s="22">
+        <v>130</v>
+      </c>
+      <c r="AF32" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="24">
+        <f t="shared" si="22"/>
+        <v>20.6298828125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B33" s="11">
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D33" s="11">
+        <v>256</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G33" s="22">
+        <v>53</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="8"/>
+        <v>79.296875</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K33" s="4">
+        <v>141</v>
+      </c>
+      <c r="L33" s="24">
+        <f t="shared" si="0"/>
+        <v>44.921875</v>
+      </c>
+      <c r="M33" s="24">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="N33" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O33" s="4">
+        <v>231</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" si="1"/>
+        <v>9.765625</v>
+      </c>
+      <c r="Q33" s="24">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="R33" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S33" s="22">
+        <v>247</v>
+      </c>
+      <c r="T33" s="24">
+        <f t="shared" si="2"/>
+        <v>3.515625</v>
+      </c>
+      <c r="U33" s="24">
+        <f t="shared" si="15"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="V33" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W33" s="22">
+        <v>249</v>
+      </c>
+      <c r="X33" s="24">
+        <f t="shared" si="17"/>
+        <v>2.734375</v>
+      </c>
+      <c r="Y33" s="24">
+        <f t="shared" si="18"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="Z33" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>249</v>
+      </c>
+      <c r="AB33" s="24">
+        <f t="shared" si="3"/>
+        <v>2.734375</v>
+      </c>
+      <c r="AC33" s="24">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="AD33" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>256</v>
+      </c>
+      <c r="AF33" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="24">
+        <f t="shared" si="22"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" s="11">
-        <v>10.3125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D34" s="11">
+        <v>382</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="6"/>
+        <v>0.74609375</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G34" s="22">
+        <v>55</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="8"/>
+        <v>85.602094240837701</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="9"/>
+        <v>0.74609375</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K34" s="4">
+        <v>175</v>
+      </c>
+      <c r="L34" s="24">
+        <f t="shared" si="0"/>
+        <v>54.188481675392673</v>
+      </c>
+      <c r="M34" s="24">
+        <f t="shared" si="11"/>
+        <v>74.609375</v>
+      </c>
+      <c r="N34" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O34" s="4">
+        <v>322</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="1"/>
+        <v>15.706806282722512</v>
+      </c>
+      <c r="Q34" s="24">
+        <f t="shared" si="13"/>
+        <v>59.6875</v>
+      </c>
+      <c r="R34" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S34" s="22">
+        <v>349</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="2"/>
+        <v>8.6387434554973819</v>
+      </c>
+      <c r="U34" s="24">
+        <f t="shared" si="15"/>
+        <v>67.826704545454547</v>
+      </c>
+      <c r="V34" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W34" s="22">
+        <v>360</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" si="17"/>
+        <v>5.7591623036649215</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="18"/>
+        <v>69.635416666666657</v>
+      </c>
+      <c r="Z34" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>360</v>
+      </c>
+      <c r="AB34" s="24">
+        <f t="shared" si="3"/>
+        <v>5.7591623036649215</v>
+      </c>
+      <c r="AC34" s="24">
+        <f t="shared" si="20"/>
+        <v>37.3046875</v>
+      </c>
+      <c r="AD34" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>382</v>
+      </c>
+      <c r="AF34" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="24">
+        <f t="shared" si="22"/>
+        <v>60.6201171875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B35" s="11">
-        <v>2.8125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D35" s="11">
+        <v>466</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="6"/>
+        <v>0.91015625</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G35" s="22">
+        <v>55</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="8"/>
+        <v>88.197424892703864</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="9"/>
+        <v>0.91015625</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K35" s="4">
+        <v>185</v>
+      </c>
+      <c r="L35" s="24">
+        <f t="shared" si="0"/>
+        <v>60.300429184549358</v>
+      </c>
+      <c r="M35" s="24">
+        <f t="shared" si="11"/>
+        <v>91.015625</v>
+      </c>
+      <c r="N35" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O35" s="4">
+        <v>371</v>
+      </c>
+      <c r="P35" s="24">
+        <f t="shared" si="1"/>
+        <v>20.386266094420602</v>
+      </c>
+      <c r="Q35" s="24">
+        <f t="shared" si="13"/>
+        <v>72.8125</v>
+      </c>
+      <c r="R35" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S35" s="22">
+        <v>403</v>
+      </c>
+      <c r="T35" s="24">
+        <f t="shared" si="2"/>
+        <v>13.519313304721029</v>
+      </c>
+      <c r="U35" s="24">
+        <f t="shared" si="15"/>
+        <v>82.741477272727266</v>
+      </c>
+      <c r="V35" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W35" s="22">
+        <v>423</v>
+      </c>
+      <c r="X35" s="24">
+        <f t="shared" si="17"/>
+        <v>9.2274678111587978</v>
+      </c>
+      <c r="Y35" s="24">
+        <f t="shared" si="18"/>
+        <v>84.947916666666657</v>
+      </c>
+      <c r="Z35" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA35" s="22">
+        <v>424</v>
+      </c>
+      <c r="AB35" s="24">
+        <f t="shared" si="3"/>
+        <v>9.0128755364806867</v>
+      </c>
+      <c r="AC35" s="24">
+        <f t="shared" si="20"/>
+        <v>45.5078125</v>
+      </c>
+      <c r="AD35" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE35" s="22">
+        <v>466</v>
+      </c>
+      <c r="AF35" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="24">
+        <f t="shared" si="22"/>
+        <v>73.9501953125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B36" s="11">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D36" s="11">
+        <v>502</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="6"/>
+        <v>0.98046875</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G36" s="22">
+        <v>55</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="8"/>
+        <v>89.04382470119522</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="9"/>
+        <v>0.98046875</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K36" s="4">
+        <v>186</v>
+      </c>
+      <c r="L36" s="24">
+        <f t="shared" si="0"/>
+        <v>62.948207171314742</v>
+      </c>
+      <c r="M36" s="24">
+        <f t="shared" si="11"/>
+        <v>98.046875</v>
+      </c>
+      <c r="N36" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O36" s="4">
+        <v>386</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" si="1"/>
+        <v>23.107569721115539</v>
+      </c>
+      <c r="Q36" s="24">
+        <f t="shared" si="13"/>
+        <v>78.4375</v>
+      </c>
+      <c r="R36" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S36" s="22">
+        <v>419</v>
+      </c>
+      <c r="T36" s="24">
+        <f t="shared" si="2"/>
+        <v>16.533864541832671</v>
+      </c>
+      <c r="U36" s="24">
+        <f t="shared" si="15"/>
+        <v>89.13352272727272</v>
+      </c>
+      <c r="V36" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W36" s="22">
+        <v>441</v>
+      </c>
+      <c r="X36" s="24">
+        <f t="shared" si="17"/>
+        <v>12.151394422310757</v>
+      </c>
+      <c r="Y36" s="24">
+        <f t="shared" si="18"/>
+        <v>91.510416666666657</v>
+      </c>
+      <c r="Z36" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA36" s="22">
+        <v>445</v>
+      </c>
+      <c r="AB36" s="24">
+        <f t="shared" si="3"/>
+        <v>11.354581673306773</v>
+      </c>
+      <c r="AC36" s="24">
+        <f t="shared" si="20"/>
+        <v>49.0234375</v>
+      </c>
+      <c r="AD36" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE36" s="22">
+        <v>502</v>
+      </c>
+      <c r="AF36" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="24">
+        <f t="shared" si="22"/>
+        <v>79.6630859375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B37" s="11">
-        <v>1.640625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="D37" s="11">
+        <v>511</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="6"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="7"/>
+        <v>25600</v>
+      </c>
+      <c r="G37" s="22">
+        <v>55</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="8"/>
+        <v>89.236790606653614</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="9"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="10"/>
+        <v>44800</v>
+      </c>
+      <c r="K37" s="4">
+        <v>186</v>
+      </c>
+      <c r="L37" s="24">
+        <f t="shared" si="0"/>
+        <v>63.600782778864968</v>
+      </c>
+      <c r="M37" s="24">
+        <f t="shared" si="11"/>
+        <v>99.8046875</v>
+      </c>
+      <c r="N37" s="22">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="O37" s="4">
+        <v>388</v>
+      </c>
+      <c r="P37" s="24">
+        <f t="shared" si="1"/>
+        <v>24.07045009784736</v>
+      </c>
+      <c r="Q37" s="24">
+        <f t="shared" si="13"/>
+        <v>79.84375</v>
+      </c>
+      <c r="R37" s="22">
+        <f t="shared" si="14"/>
+        <v>35200</v>
+      </c>
+      <c r="S37" s="22">
+        <v>421</v>
+      </c>
+      <c r="T37" s="24">
+        <f t="shared" si="2"/>
+        <v>17.612524461839531</v>
+      </c>
+      <c r="U37" s="24">
+        <f t="shared" si="15"/>
+        <v>90.731534090909093</v>
+      </c>
+      <c r="V37" s="22">
+        <f t="shared" si="16"/>
+        <v>48000</v>
+      </c>
+      <c r="W37" s="22">
+        <v>443</v>
+      </c>
+      <c r="X37" s="24">
+        <f t="shared" si="17"/>
+        <v>13.307240704500979</v>
+      </c>
+      <c r="Y37" s="24">
+        <f t="shared" si="18"/>
+        <v>93.151041666666657</v>
+      </c>
+      <c r="Z37" s="22">
+        <f t="shared" si="19"/>
+        <v>9600</v>
+      </c>
+      <c r="AA37" s="22">
+        <v>448</v>
+      </c>
+      <c r="AB37" s="24">
+        <f t="shared" si="3"/>
+        <v>12.328767123287671</v>
+      </c>
+      <c r="AC37" s="24">
+        <f t="shared" si="20"/>
+        <v>49.90234375</v>
+      </c>
+      <c r="AD37" s="22">
+        <f t="shared" si="21"/>
+        <v>25600</v>
+      </c>
+      <c r="AE37" s="22">
+        <v>511</v>
+      </c>
+      <c r="AF37" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="24">
+        <f t="shared" si="22"/>
+        <v>81.09130859375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B38" s="11">
-        <v>5.15625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D38" s="11">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="6"/>
+        <v>1.07421875E-2</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G38" s="22">
+        <v>8</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="8"/>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="9"/>
+        <v>1.07421875E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K38" s="4">
+        <v>10</v>
+      </c>
+      <c r="L38" s="24">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="M38" s="24">
+        <f t="shared" si="11"/>
+        <v>1.07421875</v>
+      </c>
+      <c r="N38" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O38" s="4">
+        <v>11</v>
+      </c>
+      <c r="P38" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="24">
+        <f t="shared" si="13"/>
+        <v>0.859375</v>
+      </c>
+      <c r="R38" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S38" s="22">
+        <v>11</v>
+      </c>
+      <c r="T38" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="24">
+        <f t="shared" si="15"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="V38" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W38" s="22">
+        <v>11</v>
+      </c>
+      <c r="X38" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="24">
+        <f t="shared" si="18"/>
+        <v>1.0026041666666665</v>
+      </c>
+      <c r="Z38" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA38" s="22">
+        <v>11</v>
+      </c>
+      <c r="AB38" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="24">
+        <f t="shared" si="20"/>
+        <v>0.537109375</v>
+      </c>
+      <c r="AD38" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE38" s="22">
+        <v>11</v>
+      </c>
+      <c r="AF38" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="24">
+        <f t="shared" si="22"/>
+        <v>0.872802734375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B39" s="11">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D39" s="11">
+        <v>56</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="6"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G39" s="22">
+        <v>29</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="8"/>
+        <v>48.214285714285715</v>
+      </c>
+      <c r="I39" s="24">
+        <f t="shared" si="9"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K39" s="4">
+        <v>45</v>
+      </c>
+      <c r="L39" s="24">
+        <f t="shared" si="0"/>
+        <v>19.642857142857142</v>
+      </c>
+      <c r="M39" s="24">
+        <f t="shared" si="11"/>
+        <v>5.46875</v>
+      </c>
+      <c r="N39" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O39" s="4">
+        <v>56</v>
+      </c>
+      <c r="P39" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="24">
+        <f t="shared" si="13"/>
+        <v>4.375</v>
+      </c>
+      <c r="R39" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S39" s="22">
+        <v>56</v>
+      </c>
+      <c r="T39" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="24">
+        <f t="shared" si="15"/>
+        <v>4.9715909090909092</v>
+      </c>
+      <c r="V39" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W39" s="22">
+        <v>56</v>
+      </c>
+      <c r="X39" s="24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24">
+        <f t="shared" si="18"/>
+        <v>5.1041666666666661</v>
+      </c>
+      <c r="Z39" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA39" s="22">
+        <v>56</v>
+      </c>
+      <c r="AB39" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="24">
+        <f t="shared" si="20"/>
+        <v>2.734375</v>
+      </c>
+      <c r="AD39" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE39" s="22">
+        <v>56</v>
+      </c>
+      <c r="AF39" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="24">
+        <f t="shared" si="22"/>
+        <v>4.443359375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B40" s="11">
-        <v>3.3984375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D40" s="11">
+        <v>176</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.171875</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G40" s="22">
+        <v>63</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="8"/>
+        <v>64.204545454545453</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="9"/>
+        <v>0.171875</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K40" s="4">
+        <v>122</v>
+      </c>
+      <c r="L40" s="24">
+        <f t="shared" si="0"/>
+        <v>30.681818181818183</v>
+      </c>
+      <c r="M40" s="24">
+        <f t="shared" si="11"/>
+        <v>17.1875</v>
+      </c>
+      <c r="N40" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O40" s="4">
+        <v>171</v>
+      </c>
+      <c r="P40" s="24">
+        <f t="shared" si="1"/>
+        <v>2.8409090909090908</v>
+      </c>
+      <c r="Q40" s="24">
+        <f t="shared" si="13"/>
+        <v>13.75</v>
+      </c>
+      <c r="R40" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S40" s="22">
+        <v>175</v>
+      </c>
+      <c r="T40" s="24">
+        <f t="shared" si="2"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="U40" s="24">
+        <f t="shared" si="15"/>
+        <v>15.625</v>
+      </c>
+      <c r="V40" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W40" s="22">
+        <v>175</v>
+      </c>
+      <c r="X40" s="24">
+        <f t="shared" si="17"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="Y40" s="24">
+        <f t="shared" si="18"/>
+        <v>16.041666666666664</v>
+      </c>
+      <c r="Z40" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA40" s="22">
+        <v>175</v>
+      </c>
+      <c r="AB40" s="24">
+        <f t="shared" si="3"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="AC40" s="24">
+        <f t="shared" si="20"/>
+        <v>8.59375</v>
+      </c>
+      <c r="AD40" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE40" s="22">
+        <v>176</v>
+      </c>
+      <c r="AF40" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="24">
+        <f t="shared" si="22"/>
+        <v>13.96484375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B41" s="11">
-        <v>0.52734375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D41" s="11">
+        <v>386</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="6"/>
+        <v>0.376953125</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G41" s="22">
+        <v>94</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="8"/>
+        <v>75.647668393782382</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="9"/>
+        <v>0.376953125</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K41" s="4">
+        <v>227</v>
+      </c>
+      <c r="L41" s="24">
+        <f t="shared" si="0"/>
+        <v>41.191709844559583</v>
+      </c>
+      <c r="M41" s="24">
+        <f t="shared" si="11"/>
+        <v>37.6953125</v>
+      </c>
+      <c r="N41" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O41" s="4">
+        <v>356</v>
+      </c>
+      <c r="P41" s="24">
+        <f t="shared" si="1"/>
+        <v>7.7720207253886011</v>
+      </c>
+      <c r="Q41" s="24">
+        <f t="shared" si="13"/>
+        <v>30.15625</v>
+      </c>
+      <c r="R41" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S41" s="22">
+        <v>376</v>
+      </c>
+      <c r="T41" s="24">
+        <f t="shared" si="2"/>
+        <v>2.5906735751295336</v>
+      </c>
+      <c r="U41" s="24">
+        <f t="shared" si="15"/>
+        <v>34.268465909090907</v>
+      </c>
+      <c r="V41" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W41" s="22">
+        <v>378</v>
+      </c>
+      <c r="X41" s="24">
+        <f t="shared" si="17"/>
+        <v>2.0725388601036268</v>
+      </c>
+      <c r="Y41" s="24">
+        <f t="shared" si="18"/>
+        <v>35.182291666666664</v>
+      </c>
+      <c r="Z41" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA41" s="22">
+        <v>378</v>
+      </c>
+      <c r="AB41" s="24">
+        <f t="shared" si="3"/>
+        <v>2.0725388601036268</v>
+      </c>
+      <c r="AC41" s="24">
+        <f t="shared" si="20"/>
+        <v>18.84765625</v>
+      </c>
+      <c r="AD41" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE41" s="22">
+        <v>386</v>
+      </c>
+      <c r="AF41" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="24">
+        <f t="shared" si="22"/>
+        <v>30.62744140625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B42" s="11">
-        <v>2.16796875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D42" s="11">
+        <v>638</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="6"/>
+        <v>0.623046875</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G42" s="22">
+        <v>109</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="8"/>
+        <v>82.915360501567392</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="9"/>
+        <v>0.623046875</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K42" s="4">
+        <v>316</v>
+      </c>
+      <c r="L42" s="24">
+        <f t="shared" si="0"/>
+        <v>50.470219435736674</v>
+      </c>
+      <c r="M42" s="24">
+        <f t="shared" si="11"/>
+        <v>62.3046875</v>
+      </c>
+      <c r="N42" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O42" s="4">
+        <v>553</v>
+      </c>
+      <c r="P42" s="24">
+        <f t="shared" si="1"/>
+        <v>13.322884012539184</v>
+      </c>
+      <c r="Q42" s="24">
+        <f t="shared" si="13"/>
+        <v>49.84375</v>
+      </c>
+      <c r="R42" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S42" s="22">
+        <v>597</v>
+      </c>
+      <c r="T42" s="24">
+        <f t="shared" si="2"/>
+        <v>6.4263322884012535</v>
+      </c>
+      <c r="U42" s="24">
+        <f t="shared" si="15"/>
+        <v>56.640625</v>
+      </c>
+      <c r="V42" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W42" s="22">
+        <v>609</v>
+      </c>
+      <c r="X42" s="24">
+        <f t="shared" si="17"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="Y42" s="24">
+        <f t="shared" si="18"/>
+        <v>58.151041666666664</v>
+      </c>
+      <c r="Z42" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA42" s="22">
+        <v>609</v>
+      </c>
+      <c r="AB42" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="AC42" s="24">
+        <f t="shared" si="20"/>
+        <v>31.15234375</v>
+      </c>
+      <c r="AD42" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE42" s="22">
+        <v>638</v>
+      </c>
+      <c r="AF42" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="24">
+        <f t="shared" si="22"/>
+        <v>50.62255859375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B43" s="11">
-        <v>0.29296875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D43" s="11">
+        <v>848</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="6"/>
+        <v>0.828125</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G43" s="22">
+        <v>111</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="8"/>
+        <v>86.910377358490564</v>
+      </c>
+      <c r="I43" s="24">
+        <f t="shared" si="9"/>
+        <v>0.828125</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K43" s="4">
+        <v>360</v>
+      </c>
+      <c r="L43" s="24">
+        <f t="shared" si="0"/>
+        <v>57.547169811320757</v>
+      </c>
+      <c r="M43" s="24">
+        <f t="shared" si="11"/>
+        <v>82.8125</v>
+      </c>
+      <c r="N43" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O43" s="4">
+        <v>693</v>
+      </c>
+      <c r="P43" s="24">
+        <f t="shared" si="1"/>
+        <v>18.278301886792452</v>
+      </c>
+      <c r="Q43" s="24">
+        <f t="shared" si="13"/>
+        <v>66.25</v>
+      </c>
+      <c r="R43" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S43" s="22">
+        <v>753</v>
+      </c>
+      <c r="T43" s="24">
+        <f t="shared" si="2"/>
+        <v>11.202830188679245</v>
+      </c>
+      <c r="U43" s="24">
+        <f t="shared" si="15"/>
+        <v>75.284090909090907</v>
+      </c>
+      <c r="V43" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W43" s="22">
+        <v>783</v>
+      </c>
+      <c r="X43" s="24">
+        <f t="shared" si="17"/>
+        <v>7.6650943396226419</v>
+      </c>
+      <c r="Y43" s="24">
+        <f t="shared" si="18"/>
+        <v>77.291666666666657</v>
+      </c>
+      <c r="Z43" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA43" s="22">
+        <v>784</v>
+      </c>
+      <c r="AB43" s="24">
+        <f t="shared" si="3"/>
+        <v>7.5471698113207548</v>
+      </c>
+      <c r="AC43" s="24">
+        <f t="shared" si="20"/>
+        <v>41.40625</v>
+      </c>
+      <c r="AD43" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE43" s="22">
+        <v>848</v>
+      </c>
+      <c r="AF43" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="24">
+        <f t="shared" si="22"/>
+        <v>67.28515625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B44" s="11">
-        <v>1.34765625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D44" s="11">
+        <v>968</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9453125</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G44" s="22">
+        <v>111</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="8"/>
+        <v>88.533057851239676</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9453125</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K44" s="4">
+        <v>371</v>
+      </c>
+      <c r="L44" s="24">
+        <f t="shared" si="0"/>
+        <v>61.673553719008261</v>
+      </c>
+      <c r="M44" s="24">
+        <f t="shared" si="11"/>
+        <v>94.53125</v>
+      </c>
+      <c r="N44" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O44" s="4">
+        <v>575</v>
+      </c>
+      <c r="P44" s="24">
+        <f t="shared" si="1"/>
+        <v>40.599173553719005</v>
+      </c>
+      <c r="Q44" s="24">
+        <f t="shared" si="13"/>
+        <v>75.625</v>
+      </c>
+      <c r="R44" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S44" s="22">
+        <v>823</v>
+      </c>
+      <c r="T44" s="24">
+        <f t="shared" si="2"/>
+        <v>14.979338842975206</v>
+      </c>
+      <c r="U44" s="24">
+        <f t="shared" si="15"/>
+        <v>85.9375</v>
+      </c>
+      <c r="V44" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W44" s="22">
+        <v>865</v>
+      </c>
+      <c r="X44" s="24">
+        <f t="shared" si="17"/>
+        <v>10.640495867768594</v>
+      </c>
+      <c r="Y44" s="24">
+        <f t="shared" si="18"/>
+        <v>88.229166666666657</v>
+      </c>
+      <c r="Z44" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA44" s="22">
+        <v>869</v>
+      </c>
+      <c r="AB44" s="24">
+        <f t="shared" si="3"/>
+        <v>10.227272727272727</v>
+      </c>
+      <c r="AC44" s="24">
+        <f t="shared" si="20"/>
+        <v>47.265625</v>
+      </c>
+      <c r="AD44" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE44" s="22">
+        <v>968</v>
+      </c>
+      <c r="AF44" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="24">
+        <f t="shared" si="22"/>
+        <v>76.806640625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B45" s="11">
-        <v>0.1611328125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1013</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9892578125</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G45" s="22">
+        <v>111</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="8"/>
+        <v>89.042448173741363</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9892578125</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K45" s="4">
+        <v>372</v>
+      </c>
+      <c r="L45" s="24">
+        <f t="shared" si="0"/>
+        <v>63.277393879565643</v>
+      </c>
+      <c r="M45" s="24">
+        <f t="shared" si="11"/>
+        <v>98.92578125</v>
+      </c>
+      <c r="N45" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O45" s="4">
+        <v>774</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" si="1"/>
+        <v>23.593287265547879</v>
+      </c>
+      <c r="Q45" s="24">
+        <f t="shared" si="13"/>
+        <v>79.140625</v>
+      </c>
+      <c r="R45" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S45" s="22">
+        <v>841</v>
+      </c>
+      <c r="T45" s="24">
+        <f t="shared" si="2"/>
+        <v>16.979269496544916</v>
+      </c>
+      <c r="U45" s="24">
+        <f t="shared" si="15"/>
+        <v>89.932528409090907</v>
+      </c>
+      <c r="V45" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W45" s="22">
+        <v>885</v>
+      </c>
+      <c r="X45" s="24">
+        <f t="shared" si="17"/>
+        <v>12.63573543928924</v>
+      </c>
+      <c r="Y45" s="24">
+        <f t="shared" si="18"/>
+        <v>92.330729166666657</v>
+      </c>
+      <c r="Z45" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA45" s="22">
+        <v>893</v>
+      </c>
+      <c r="AB45" s="24">
+        <f t="shared" si="3"/>
+        <v>11.846001974333662</v>
+      </c>
+      <c r="AC45" s="24">
+        <f t="shared" si="20"/>
+        <v>49.462890625</v>
+      </c>
+      <c r="AD45" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE45" s="22">
+        <v>1013</v>
+      </c>
+      <c r="AF45" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="24">
+        <f t="shared" si="22"/>
+        <v>80.377197265625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B46" s="11">
-        <v>0.8203125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1023</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="6"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="7"/>
+        <v>51200</v>
+      </c>
+      <c r="G46" s="22">
+        <v>111</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" si="8"/>
+        <v>89.149560117302059</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="9"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="10"/>
+        <v>89600</v>
+      </c>
+      <c r="K46" s="4">
+        <v>372</v>
+      </c>
+      <c r="L46" s="24">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="M46" s="24">
+        <f t="shared" si="11"/>
+        <v>99.90234375</v>
+      </c>
+      <c r="N46" s="22">
+        <f t="shared" si="12"/>
+        <v>32000</v>
+      </c>
+      <c r="O46" s="4">
+        <v>776</v>
+      </c>
+      <c r="P46" s="24">
+        <f t="shared" si="1"/>
+        <v>24.144672531769306</v>
+      </c>
+      <c r="Q46" s="24">
+        <f t="shared" si="13"/>
+        <v>79.921875</v>
+      </c>
+      <c r="R46" s="22">
+        <f t="shared" si="14"/>
+        <v>70400</v>
+      </c>
+      <c r="S46" s="22">
+        <v>843</v>
+      </c>
+      <c r="T46" s="24">
+        <f t="shared" si="2"/>
+        <v>17.595307917888562</v>
+      </c>
+      <c r="U46" s="24">
+        <f t="shared" si="15"/>
+        <v>90.8203125</v>
+      </c>
+      <c r="V46" s="22">
+        <f t="shared" si="16"/>
+        <v>96000</v>
+      </c>
+      <c r="W46" s="22">
+        <v>887</v>
+      </c>
+      <c r="X46" s="24">
+        <f t="shared" si="17"/>
+        <v>13.294232649071359</v>
+      </c>
+      <c r="Y46" s="24">
+        <f t="shared" si="18"/>
+        <v>93.2421875</v>
+      </c>
+      <c r="Z46" s="22">
+        <f t="shared" si="19"/>
+        <v>19200</v>
+      </c>
+      <c r="AA46" s="22">
+        <v>896</v>
+      </c>
+      <c r="AB46" s="24">
+        <f t="shared" si="3"/>
+        <v>12.41446725317693</v>
+      </c>
+      <c r="AC46" s="24">
+        <f t="shared" si="20"/>
+        <v>49.951171875</v>
+      </c>
+      <c r="AD46" s="22">
+        <f t="shared" si="21"/>
+        <v>51200</v>
+      </c>
+      <c r="AE46" s="22">
+        <v>1023</v>
+      </c>
+      <c r="AF46" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="24">
+        <f t="shared" si="22"/>
+        <v>81.170654296875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>0</v>
       </c>
@@ -8042,7 +13363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>0</v>
       </c>
